--- a/TABELA PREDITIVA-v3.xlsx
+++ b/TABELA PREDITIVA-v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CIENCIA DA COMPUTAÇAO\4º ANO\Compiladores\H_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BD3BC-AA28-47B6-BCA5-595C3CE7B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904C1B4-9DA7-466B-B491-3F9FA91E1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="427">
   <si>
     <t>A</t>
   </si>
@@ -253,15 +253,9 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ==</t>
-  </si>
-  <si>
     <t>!=</t>
   </si>
   <si>
-    <t xml:space="preserve"> =</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -280,12 +274,6 @@
     <t>.</t>
   </si>
   <si>
-    <t xml:space="preserve">true </t>
-  </si>
-  <si>
-    <t xml:space="preserve">false </t>
-  </si>
-  <si>
     <t>write</t>
   </si>
   <si>
@@ -670,9 +658,6 @@
     <t>PROC_WO_VAR</t>
   </si>
   <si>
-    <t>PROC_WO_VAR -&gt; ATTRIB_STRUCT PROC_WO_VAR_AUX</t>
-  </si>
-  <si>
     <t>PROC_WO_VAR -&gt; FOR_STUCT PROC_WO_VAR_AUX</t>
   </si>
   <si>
@@ -697,12 +682,6 @@
     <t>PROC</t>
   </si>
   <si>
-    <t>PROC -&gt; ATTRIB_STRUCT PROC</t>
-  </si>
-  <si>
-    <t>PROC -&gt; VAR_DECL</t>
-  </si>
-  <si>
     <t>PROC -&gt; FOR_STRUCT PROC</t>
   </si>
   <si>
@@ -733,9 +712,6 @@
     <t>IF_STRUCT</t>
   </si>
   <si>
-    <t>IF_STRUCT -&gt; if ( LOGIC_OR_RELATIONAL ) { PROC_WO_VAR } MATCHED</t>
-  </si>
-  <si>
     <t>MATCHED</t>
   </si>
   <si>
@@ -757,9 +733,6 @@
     <t>CONDITION -&gt; not ( LOGIC_POSSIBILITIES ) LOGIC_CONTINUE</t>
   </si>
   <si>
-    <t>CONDITION -&gt; BOOLEAN LOGIC_RELATIONAL</t>
-  </si>
-  <si>
     <t>LOGIC_POSSIBILITIES</t>
   </si>
   <si>
@@ -823,12 +796,6 @@
     <t>ID_TYPE_ARITH</t>
   </si>
   <si>
-    <t>ID_TYPE_ARITH -&gt; ID</t>
-  </si>
-  <si>
-    <t>ID_TYPE_ARITH -&gt; NUMBER</t>
-  </si>
-  <si>
     <t>ID_TYPE_ARITH -&gt; ARITHMETIC_OPERATION</t>
   </si>
   <si>
@@ -1229,6 +1196,126 @@
   </si>
   <si>
     <t>PRODUCTION</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>PROC -&gt; VAR_DECL PROC</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ID_TYPE_ARITH -&gt; ARITH_OP</t>
+  </si>
+  <si>
+    <t>ARITH_OP</t>
+  </si>
+  <si>
+    <t>ARITH_AUX</t>
+  </si>
+  <si>
+    <t>HIGHER</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t>FACTOR_AUX</t>
+  </si>
+  <si>
+    <t>ARITH_OP -&gt; ARITH_AUX LOWER</t>
+  </si>
+  <si>
+    <t>ARITH_AUX -&gt; FACTOR HIGHER</t>
+  </si>
+  <si>
+    <t>HIGHER -&gt; * FACTOR HIGHER</t>
+  </si>
+  <si>
+    <t>HIGHER -&gt; / FACTOR HIGHER</t>
+  </si>
+  <si>
+    <t>HIGHER -&gt; VAZIO</t>
+  </si>
+  <si>
+    <t>LOWER -&gt; + ARITH_AUX LOWER</t>
+  </si>
+  <si>
+    <t>LOWER -&gt; - ARITH_AUX LOWER</t>
+  </si>
+  <si>
+    <t>LOWER -&gt; VAZIO</t>
+  </si>
+  <si>
+    <t>FACTOR -&gt; ID</t>
+  </si>
+  <si>
+    <t>FACTOR_AUX -&gt; ID</t>
+  </si>
+  <si>
+    <t>FACTOR -&gt; NUMBER</t>
+  </si>
+  <si>
+    <t>FACTOR_AUX -&gt; NUMBER</t>
+  </si>
+  <si>
+    <t>FACTOR -&gt; - ( FACTOR_AUX )</t>
+  </si>
+  <si>
+    <t>FACTOR -&gt; ( FACTOR_AUX )</t>
+  </si>
+  <si>
+    <t>PROC -&gt; ATTRIB_STRUCT ; PROC</t>
+  </si>
+  <si>
+    <t>IF_STRUCT -&gt; if ( CONDITION ) { PROC_WO_VAR } MATCHED</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>CONDITION -&gt; BOOLEAN OPERATION</t>
+  </si>
+  <si>
+    <t>PROC_WO_VAR -&gt; ATTRIB_STRUCT ; PROC_WO_VAR_AUX</t>
+  </si>
+  <si>
+    <t>==</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1353,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,6 +1370,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1320,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1350,6 +1443,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,16 +1666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS993"/>
+  <dimension ref="A1:CS999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BV12" sqref="BV12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="53" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="63" width="51" bestFit="1" customWidth="1"/>
-    <col min="64" max="67" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="67" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="60" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1582,7 +1685,7 @@
     <col min="72" max="72" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="75" width="49" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="38" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -1592,7 +1695,8 @@
     <col min="86" max="86" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="26" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="93" max="94" width="49.7109375" bestFit="1" customWidth="1"/>
@@ -1603,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:97" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1761,35 +1865,35 @@
       <c r="BA1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="8">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="8">
-        <v>2</v>
-      </c>
-      <c r="BE1" s="8">
-        <v>3</v>
-      </c>
-      <c r="BF1" s="8">
-        <v>4</v>
-      </c>
-      <c r="BG1" s="8">
-        <v>5</v>
-      </c>
-      <c r="BH1" s="8">
-        <v>6</v>
-      </c>
-      <c r="BI1" s="8">
-        <v>7</v>
-      </c>
-      <c r="BJ1" s="8">
-        <v>8</v>
-      </c>
-      <c r="BK1" s="8">
-        <v>9</v>
+      <c r="BB1" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH1" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="BK1" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="BL1" s="8" t="s">
         <v>52</v>
@@ -1851,52 +1955,52 @@
       <c r="CE1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="CG1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="CI1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CM1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CO1" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="CP1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="CS1" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1961,16 +2065,16 @@
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -2005,163 +2109,163 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
@@ -2210,248 +2314,248 @@
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BK4" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BX4" s="2"/>
       <c r="BY4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
       <c r="CD4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
@@ -2463,7 +2567,7 @@
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2528,16 +2632,16 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
@@ -2572,163 +2676,163 @@
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
@@ -2746,7 +2850,7 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
       <c r="BQ6" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
@@ -2759,7 +2863,7 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="CC6" s="2"/>
       <c r="CD6" s="2"/>
@@ -2776,172 +2880,172 @@
       <c r="CO6" s="2"/>
       <c r="CP6" s="2"/>
       <c r="CQ6" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="CR6" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="CS6" s="2"/>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
@@ -2959,7 +3063,7 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
@@ -2971,10 +3075,10 @@
       <c r="BY7" s="1"/>
       <c r="BZ7" s="1"/>
       <c r="CA7" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
@@ -2991,172 +3095,172 @@
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="CS7" s="1"/>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
@@ -3169,20 +3273,20 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
@@ -3195,7 +3299,7 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="CC8" s="2"/>
       <c r="CD8" s="2"/>
@@ -3212,18 +3316,18 @@
       <c r="CO8" s="2"/>
       <c r="CP8" s="2"/>
       <c r="CQ8" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="CR8" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="CS8" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3293,7 +3397,7 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
@@ -3326,7 +3430,7 @@
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3381,34 +3485,34 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
@@ -3447,7 +3551,7 @@
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3528,7 +3632,7 @@
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
       <c r="CB11" s="2" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="CC11" s="2"/>
       <c r="CD11" s="2"/>
@@ -3550,163 +3654,163 @@
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
@@ -3719,20 +3823,20 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -3743,12 +3847,14 @@
       <c r="BX12" s="1"/>
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
+      <c r="CA12" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="CB12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="CC12" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
@@ -3764,204 +3870,204 @@
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="CR12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="CS12" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AM13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AO13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AP13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AR13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AS13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AT13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AU13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AW13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AX13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AY13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BA13" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BB13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BD13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BE13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BG13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BJ13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BK13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="BL13" s="6"/>
       <c r="BM13" s="6"/>
@@ -3973,7 +4079,7 @@
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
       <c r="BU13" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV13" s="6"/>
       <c r="BW13" s="6"/>
@@ -3990,17 +4096,17 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="6"/>
       <c r="CJ13" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="CK13" s="6"/>
       <c r="CL13" s="6"/>
       <c r="CM13" s="6"/>
       <c r="CN13" s="6"/>
       <c r="CO13" s="6" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="CP13" s="6" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="CQ13" s="6"/>
       <c r="CR13" s="6"/>
@@ -4008,163 +4114,163 @@
     </row>
     <row r="14" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AO14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AR14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AU14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AX14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AY14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="BA14" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
@@ -4186,7 +4292,7 @@
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="BV14" s="6"/>
       <c r="BW14" s="6"/>
@@ -4208,10 +4314,10 @@
       <c r="CM14" s="6"/>
       <c r="CN14" s="6"/>
       <c r="CO14" s="6" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="CP14" s="6" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="CQ14" s="6"/>
       <c r="CR14" s="6"/>
@@ -4219,7 +4325,7 @@
     </row>
     <row r="15" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4302,16 +4408,16 @@
       <c r="CB15" s="6"/>
       <c r="CC15" s="6"/>
       <c r="CD15" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="CE15" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="CF15" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="CG15" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="CH15" s="6"/>
       <c r="CI15" s="6"/>
@@ -4328,193 +4434,193 @@
     </row>
     <row r="16" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BL16" s="6"/>
       <c r="BM16" s="6"/>
@@ -4539,11 +4645,11 @@
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="CI16" s="6"/>
       <c r="CJ16" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="CK16" s="6"/>
       <c r="CL16" s="6"/>
@@ -4557,193 +4663,193 @@
     </row>
     <row r="17" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AO17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AP17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AS17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AT17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AU17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AW17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AX17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AY17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="BA17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="BB17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BD17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BE17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BG17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BH17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BI17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BJ17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BK17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BL17" s="6"/>
       <c r="BM17" s="6"/>
@@ -4770,7 +4876,7 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="6"/>
       <c r="CJ17" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="CK17" s="6"/>
       <c r="CL17" s="6"/>
@@ -4784,7 +4890,7 @@
     </row>
     <row r="18" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4859,30 +4965,30 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="BW18" s="6" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="BX18" s="6"/>
       <c r="BY18" s="6" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="BZ18" s="6"/>
       <c r="CA18" s="6"/>
       <c r="CB18" s="6"/>
       <c r="CC18" s="6"/>
       <c r="CD18" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="CE18" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="CF18" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="CG18" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="CH18" s="6"/>
       <c r="CI18" s="6"/>
@@ -4897,1095 +5003,1425 @@
       <c r="CR18" s="6"/>
       <c r="CS18" s="6"/>
     </row>
-    <row r="19" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BP19" s="6"/>
-      <c r="BQ19" s="6"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
-      <c r="BV19" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BW19" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="BZ19" s="6"/>
-      <c r="CA19" s="6"/>
-      <c r="CB19" s="6"/>
-      <c r="CC19" s="6"/>
-      <c r="CD19" s="6"/>
-      <c r="CE19" s="6"/>
-      <c r="CF19" s="6"/>
-      <c r="CG19" s="6"/>
-      <c r="CH19" s="6"/>
-      <c r="CI19" s="6"/>
-      <c r="CJ19" s="6"/>
-      <c r="CK19" s="6"/>
-      <c r="CL19" s="6"/>
-      <c r="CM19" s="6"/>
-      <c r="CN19" s="6"/>
-      <c r="CO19" s="6"/>
-      <c r="CP19" s="6"/>
-      <c r="CQ19" s="6"/>
-      <c r="CR19" s="6"/>
-      <c r="CS19" s="6"/>
+    <row r="19" spans="1:97" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="BW19" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
     </row>
-    <row r="20" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
-      <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
-      <c r="CI20" s="1"/>
-      <c r="CJ20" s="1"/>
-      <c r="CK20" s="1"/>
-      <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
+    <row r="20" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AZ20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BA20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BB20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BD20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BE20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BH20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BK20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="6"/>
+      <c r="BX20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="6"/>
+      <c r="CA20" s="6"/>
+      <c r="CB20" s="6"/>
+      <c r="CC20" s="6"/>
+      <c r="CD20" s="6"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="6"/>
+      <c r="CH20" s="6"/>
+      <c r="CI20" s="6"/>
+      <c r="CJ20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="CK20" s="6"/>
+      <c r="CL20" s="6"/>
+      <c r="CM20" s="6"/>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="6"/>
+      <c r="CP20" s="6"/>
+      <c r="CQ20" s="6"/>
+      <c r="CR20" s="6"/>
+      <c r="CS20" s="6"/>
     </row>
-    <row r="21" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AV21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BF21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BG21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BJ21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BK21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="2"/>
-      <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
-      <c r="CI21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CJ21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CK21" s="2"/>
-      <c r="CL21" s="2"/>
-      <c r="CM21" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CN21" s="2"/>
-      <c r="CO21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CP21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CQ21" s="2"/>
-      <c r="CR21" s="2"/>
-      <c r="CS21" s="2"/>
+    <row r="21" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AT21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AY21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AZ21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BA21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BB21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BC21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BD21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BG21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BI21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BK21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
+      <c r="BU21" s="6"/>
+      <c r="BV21" s="6"/>
+      <c r="BW21" s="6"/>
+      <c r="BX21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BY21" s="6"/>
+      <c r="BZ21" s="6"/>
+      <c r="CA21" s="6"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6"/>
+      <c r="CD21" s="6"/>
+      <c r="CE21" s="6"/>
+      <c r="CF21" s="6"/>
+      <c r="CG21" s="6"/>
+      <c r="CH21" s="6"/>
+      <c r="CI21" s="6"/>
+      <c r="CJ21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="CK21" s="6"/>
+      <c r="CL21" s="6"/>
+      <c r="CM21" s="6"/>
+      <c r="CN21" s="6"/>
+      <c r="CO21" s="6"/>
+      <c r="CP21" s="6"/>
+      <c r="CQ21" s="6"/>
+      <c r="CR21" s="6"/>
+      <c r="CS21" s="6"/>
     </row>
-    <row r="22" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BE22" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG22" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
-      <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
-      <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
-      <c r="CI22" s="1"/>
-      <c r="CJ22" s="1"/>
-      <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
+    <row r="22" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="6"/>
+      <c r="BP22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ22" s="6"/>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="6"/>
+      <c r="BT22" s="6"/>
+      <c r="BU22" s="6"/>
+      <c r="BV22" s="6"/>
+      <c r="BW22" s="6"/>
+      <c r="BX22" s="6"/>
+      <c r="BY22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BZ22" s="6"/>
+      <c r="CA22" s="6"/>
+      <c r="CB22" s="6"/>
+      <c r="CC22" s="6"/>
+      <c r="CD22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CE22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CF22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CH22" s="6"/>
+      <c r="CI22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CK22" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="CL22" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="CM22" s="6"/>
+      <c r="CN22" s="6"/>
+      <c r="CO22" s="6"/>
+      <c r="CP22" s="6"/>
+      <c r="CQ22" s="6"/>
+      <c r="CR22" s="6"/>
+      <c r="CS22" s="6"/>
     </row>
-    <row r="23" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC23" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD23" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="BE23" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="BF23" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="BG23" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH23" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="BI23" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="BK23" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2"/>
-      <c r="BN23" s="2"/>
-      <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="2"/>
-      <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
-      <c r="CI23" s="2"/>
-      <c r="CJ23" s="2"/>
-      <c r="CK23" s="2"/>
-      <c r="CL23" s="2"/>
-      <c r="CM23" s="2"/>
-      <c r="CN23" s="2"/>
-      <c r="CO23" s="2"/>
-      <c r="CP23" s="2"/>
-      <c r="CQ23" s="2"/>
-      <c r="CR23" s="2"/>
-      <c r="CS23" s="2"/>
+    <row r="23" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="6"/>
+      <c r="BM23" s="6"/>
+      <c r="BN23" s="6"/>
+      <c r="BO23" s="6"/>
+      <c r="BP23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="6"/>
+      <c r="BS23" s="6"/>
+      <c r="BT23" s="6"/>
+      <c r="BU23" s="6"/>
+      <c r="BV23" s="6"/>
+      <c r="BW23" s="6"/>
+      <c r="BX23" s="6"/>
+      <c r="BY23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BZ23" s="6"/>
+      <c r="CA23" s="6"/>
+      <c r="CB23" s="6"/>
+      <c r="CC23" s="6"/>
+      <c r="CD23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CF23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CG23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CH23" s="6"/>
+      <c r="CI23" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="CJ23" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK23" s="6"/>
+      <c r="CL23" s="6"/>
+      <c r="CM23" s="6"/>
+      <c r="CN23" s="6"/>
+      <c r="CO23" s="6"/>
+      <c r="CP23" s="6"/>
+      <c r="CQ23" s="6"/>
+      <c r="CR23" s="6"/>
+      <c r="CS23" s="6"/>
     </row>
-    <row r="24" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BF24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BH24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BJ24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
-      <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-      <c r="CI24" s="1"/>
-      <c r="CJ24" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
+    <row r="24" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="BA24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="BB24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BG24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BH24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BI24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BJ24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BK24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
+      <c r="BN24" s="6"/>
+      <c r="BO24" s="6"/>
+      <c r="BP24" s="6"/>
+      <c r="BQ24" s="6"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="6"/>
+      <c r="BT24" s="6"/>
+      <c r="BU24" s="6"/>
+      <c r="BV24" s="6"/>
+      <c r="BW24" s="6"/>
+      <c r="BX24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="BY24" s="6"/>
+      <c r="BZ24" s="6"/>
+      <c r="CA24" s="6"/>
+      <c r="CB24" s="6"/>
+      <c r="CC24" s="6"/>
+      <c r="CD24" s="6"/>
+      <c r="CE24" s="6"/>
+      <c r="CF24" s="6"/>
+      <c r="CG24" s="6"/>
+      <c r="CH24" s="6"/>
+      <c r="CI24" s="6"/>
+      <c r="CJ24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="CK24" s="6"/>
+      <c r="CL24" s="6"/>
+      <c r="CM24" s="6"/>
+      <c r="CN24" s="6"/>
+      <c r="CO24" s="6"/>
+      <c r="CP24" s="6"/>
+      <c r="CQ24" s="6"/>
+      <c r="CR24" s="6"/>
+      <c r="CS24" s="6"/>
     </row>
-    <row r="25" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="BC25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="BD25" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="BE25" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="BF25" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="BG25" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="BH25" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="BI25" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BJ25" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK25" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-      <c r="BT25" s="2"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
-      <c r="CH25" s="2"/>
-      <c r="CI25" s="2"/>
-      <c r="CJ25" s="2"/>
-      <c r="CK25" s="2"/>
-      <c r="CL25" s="2"/>
-      <c r="CM25" s="2"/>
-      <c r="CN25" s="2"/>
-      <c r="CO25" s="2"/>
-      <c r="CP25" s="2"/>
-      <c r="CQ25" s="2"/>
-      <c r="CR25" s="2"/>
-      <c r="CS25" s="2"/>
+    <row r="25" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AW25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AX25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AZ25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="BB25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BD25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BF25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BH25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BJ25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BK25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL25" s="6"/>
+      <c r="BM25" s="6"/>
+      <c r="BN25" s="6"/>
+      <c r="BO25" s="6"/>
+      <c r="BP25" s="6"/>
+      <c r="BQ25" s="6"/>
+      <c r="BR25" s="6"/>
+      <c r="BS25" s="6"/>
+      <c r="BT25" s="6"/>
+      <c r="BU25" s="6"/>
+      <c r="BV25" s="6"/>
+      <c r="BW25" s="6"/>
+      <c r="BX25" s="6"/>
+      <c r="BY25" s="6"/>
+      <c r="BZ25" s="6"/>
+      <c r="CA25" s="6"/>
+      <c r="CB25" s="6"/>
+      <c r="CC25" s="6"/>
+      <c r="CD25" s="6"/>
+      <c r="CE25" s="6"/>
+      <c r="CF25" s="6"/>
+      <c r="CG25" s="6"/>
+      <c r="CH25" s="6"/>
+      <c r="CI25" s="6"/>
+      <c r="CJ25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="CK25" s="6"/>
+      <c r="CL25" s="6"/>
+      <c r="CM25" s="6"/>
+      <c r="CN25" s="6"/>
+      <c r="CO25" s="6"/>
+      <c r="CP25" s="6"/>
+      <c r="CQ25" s="6"/>
+      <c r="CR25" s="6"/>
+      <c r="CS25" s="6"/>
     </row>
     <row r="26" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
@@ -6020,9 +6456,7 @@
       <c r="CG26" s="1"/>
       <c r="CH26" s="1"/>
       <c r="CI26" s="1"/>
-      <c r="CJ26" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
@@ -6035,152 +6469,242 @@
     </row>
     <row r="27" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA27" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="BB27" s="2" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="BC27" s="2" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="BJ27" s="2" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="2"/>
-      <c r="BP27" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="BP27" s="2"/>
       <c r="BQ27" s="2"/>
       <c r="BR27" s="2"/>
       <c r="BS27" s="2"/>
-      <c r="BT27" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
       <c r="BV27" s="2"/>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
-      <c r="BY27" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="BY27" s="2"/>
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
       <c r="CB27" s="2"/>
       <c r="CC27" s="2"/>
-      <c r="CD27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CE27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CF27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CG27" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="2"/>
+      <c r="CG27" s="2"/>
       <c r="CH27" s="2"/>
       <c r="CI27" s="2" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="CJ27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CK27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CL27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CM27" s="2"/>
-      <c r="CN27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CO27" s="2"/>
-      <c r="CP27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN27" s="2"/>
+      <c r="CO27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP27" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="2"/>
       <c r="CS27" s="2"/>
     </row>
     <row r="28" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6234,23 +6758,41 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
+      <c r="BB28" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
-      <c r="BP28" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
       <c r="BS28" s="1"/>
@@ -6259,42 +6801,22 @@
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
       <c r="BX28" s="1"/>
-      <c r="BY28" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
       <c r="CA28" s="1"/>
       <c r="CB28" s="1"/>
       <c r="CC28" s="1"/>
-      <c r="CD28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CE28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CF28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CG28" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
       <c r="CH28" s="1"/>
-      <c r="CI28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CK28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CL28" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
       <c r="CM28" s="1"/>
-      <c r="CN28" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
       <c r="CP28" s="1"/>
       <c r="CQ28" s="1"/>
@@ -6303,7 +6825,7 @@
     </row>
     <row r="29" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6356,17 +6878,37 @@
       <c r="AX29" s="2"/>
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD29" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BE29" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BG29" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH29" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI29" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ29" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK29" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
@@ -6394,9 +6936,7 @@
       <c r="CJ29" s="2"/>
       <c r="CK29" s="2"/>
       <c r="CL29" s="2"/>
-      <c r="CM29" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
       <c r="CO29" s="2"/>
       <c r="CP29" s="2"/>
@@ -6406,193 +6946,89 @@
     </row>
     <row r="30" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV30" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AW30" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AX30" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AY30" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AZ30" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA30" s="1" t="s">
-        <v>374</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
       <c r="BB30" s="1" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="BK30" s="1" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
@@ -6618,7 +7054,9 @@
       <c r="CG30" s="1"/>
       <c r="CH30" s="1"/>
       <c r="CI30" s="1"/>
-      <c r="CJ30" s="1"/>
+      <c r="CJ30" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="CK30" s="1"/>
       <c r="CL30" s="1"/>
       <c r="CM30" s="1"/>
@@ -6631,7 +7069,7 @@
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6685,16 +7123,36 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
+      <c r="BB31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC31" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BE31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="BF31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BG31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI31" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK31" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
       <c r="BN31" s="2"/>
@@ -6724,19 +7182,15 @@
       <c r="CL31" s="2"/>
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
-      <c r="CO31" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="CP31" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="2"/>
       <c r="CQ31" s="2"/>
       <c r="CR31" s="2"/>
       <c r="CS31" s="2"/>
     </row>
     <row r="32" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6824,22 +7278,22 @@
       <c r="CG32" s="1"/>
       <c r="CH32" s="1"/>
       <c r="CI32" s="1"/>
-      <c r="CJ32" s="1"/>
+      <c r="CJ32" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="CK32" s="1"/>
       <c r="CL32" s="1"/>
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1"/>
       <c r="CP32" s="1"/>
-      <c r="CQ32" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="CQ32" s="1"/>
       <c r="CR32" s="1"/>
       <c r="CS32" s="1"/>
     </row>
     <row r="33" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6893,59 +7347,865 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
+      <c r="BB33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BC33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BD33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF33" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BH33" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI33" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK33" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
       <c r="BN33" s="2"/>
       <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
+      <c r="BP33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="2"/>
       <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
+      <c r="BT33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
-      <c r="BW33" s="2"/>
+      <c r="BV33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="BX33" s="2"/>
-      <c r="BY33" s="2"/>
+      <c r="BY33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
       <c r="CC33" s="2"/>
-      <c r="CD33" s="2"/>
-      <c r="CE33" s="2"/>
-      <c r="CF33" s="2"/>
-      <c r="CG33" s="2"/>
+      <c r="CD33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CF33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="CH33" s="2"/>
-      <c r="CI33" s="2"/>
-      <c r="CJ33" s="2"/>
-      <c r="CK33" s="2"/>
-      <c r="CL33" s="2"/>
+      <c r="CI33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CL33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="CM33" s="2"/>
-      <c r="CN33" s="2"/>
+      <c r="CN33" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="CO33" s="2"/>
       <c r="CP33" s="2"/>
       <c r="CQ33" s="2"/>
-      <c r="CR33" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="CR33" s="2"/>
       <c r="CS33" s="2"/>
     </row>
-    <row r="34" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BW34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CE34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CG34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CJ34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CK34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+    </row>
+    <row r="35" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
+    </row>
+    <row r="36" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BB36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BE36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF36" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BG36" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH36" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BI36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BJ36" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK36" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+    </row>
+    <row r="37" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="2"/>
+      <c r="BW37" s="2"/>
+      <c r="BX37" s="2"/>
+      <c r="BY37" s="2"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="2"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="2"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="CP37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="2"/>
+      <c r="CS37" s="2"/>
+    </row>
+    <row r="38" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+    </row>
+    <row r="39" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="2"/>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="2"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CS39" s="2"/>
+    </row>
     <row r="40" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7900,6 +9160,12 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TABELA PREDITIVA-v3.xlsx
+++ b/TABELA PREDITIVA-v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CIENCIA DA COMPUTAÇAO\4º ANO\Compiladores\H_Compilador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comp\aga-compiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904C1B4-9DA7-466B-B491-3F9FA91E1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3449C3A-698F-4A1A-B372-74322CF548F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -268,9 +267,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -967,9 +963,6 @@
     <t>CHAR</t>
   </si>
   <si>
-    <t>CHAR -&gt; " CHAR_AUX "</t>
-  </si>
-  <si>
     <t>CHAR_AUX</t>
   </si>
   <si>
@@ -1316,6 +1309,12 @@
   </si>
   <si>
     <t>==</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>CHAR -&gt; ' CHAR_AUX '</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BV12" sqref="BV12"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:97" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1866,34 +1865,34 @@
         <v>51</v>
       </c>
       <c r="BB1" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="BD1" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="BG1" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="BH1" s="15" t="s">
-        <v>398</v>
-      </c>
       <c r="BI1" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BJ1" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BK1" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="BL1" s="8" t="s">
         <v>52</v>
@@ -1956,13 +1955,13 @@
         <v>71</v>
       </c>
       <c r="CF1" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="CG1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="CI1" s="8" t="s">
         <v>73</v>
@@ -1977,83 +1976,187 @@
         <v>76</v>
       </c>
       <c r="CM1" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="CN1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CO1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP1" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="CS1" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>0</v>
+      </c>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
@@ -2065,16 +2168,16 @@
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -2109,163 +2212,163 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
@@ -2314,248 +2417,248 @@
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BI4" s="2" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BK4" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BX4" s="2"/>
       <c r="BY4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
       <c r="CD4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
@@ -2567,60 +2670,164 @@
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
@@ -2632,16 +2839,16 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
@@ -2676,163 +2883,163 @@
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
@@ -2850,7 +3057,7 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
       <c r="BQ6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
@@ -2863,7 +3070,7 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CC6" s="2"/>
       <c r="CD6" s="2"/>
@@ -2880,172 +3087,172 @@
       <c r="CO6" s="2"/>
       <c r="CP6" s="2"/>
       <c r="CQ6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CR6" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="CR6" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="CS6" s="2"/>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
@@ -3063,7 +3270,7 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
@@ -3075,10 +3282,10 @@
       <c r="BY7" s="1"/>
       <c r="BZ7" s="1"/>
       <c r="CA7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
@@ -3095,172 +3302,172 @@
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CS7" s="1"/>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
@@ -3273,20 +3480,20 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
@@ -3299,7 +3506,7 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CC8" s="2"/>
       <c r="CD8" s="2"/>
@@ -3316,18 +3523,18 @@
       <c r="CO8" s="2"/>
       <c r="CP8" s="2"/>
       <c r="CQ8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CR8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CR8" s="2" t="s">
+      <c r="CS8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="CS8" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3397,7 +3604,7 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
@@ -3430,7 +3637,7 @@
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3485,34 +3692,34 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
@@ -3551,7 +3758,7 @@
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3632,7 +3839,7 @@
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
       <c r="CB11" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="CC11" s="2"/>
       <c r="CD11" s="2"/>
@@ -3654,163 +3861,163 @@
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
@@ -3823,20 +4030,20 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -3848,13 +4055,13 @@
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
       <c r="CA12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC12" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="CB12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC12" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
@@ -3870,204 +4077,204 @@
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CR12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CS12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="BC13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="BD13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="BE13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="BF13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="BG13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="BH13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="BI13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="BJ13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="BK13" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BH13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BI13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK13" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="BL13" s="6"/>
       <c r="BM13" s="6"/>
@@ -4079,7 +4286,7 @@
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
       <c r="BU13" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BV13" s="6"/>
       <c r="BW13" s="6"/>
@@ -4096,17 +4303,17 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="6"/>
       <c r="CJ13" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CK13" s="6"/>
       <c r="CL13" s="6"/>
       <c r="CM13" s="6"/>
       <c r="CN13" s="6"/>
       <c r="CO13" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="CP13" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="CQ13" s="6"/>
       <c r="CR13" s="6"/>
@@ -4114,163 +4321,163 @@
     </row>
     <row r="14" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AO14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AR14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AU14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AX14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AY14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BA14" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
@@ -4292,7 +4499,7 @@
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BV14" s="6"/>
       <c r="BW14" s="6"/>
@@ -4314,10 +4521,10 @@
       <c r="CM14" s="6"/>
       <c r="CN14" s="6"/>
       <c r="CO14" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="CP14" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="CQ14" s="6"/>
       <c r="CR14" s="6"/>
@@ -4325,7 +4532,7 @@
     </row>
     <row r="15" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4408,16 +4615,16 @@
       <c r="CB15" s="6"/>
       <c r="CC15" s="6"/>
       <c r="CD15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE15" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="CE15" s="6" t="s">
+      <c r="CF15" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="CF15" s="6" t="s">
+      <c r="CG15" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="CG15" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="CH15" s="6"/>
       <c r="CI15" s="6"/>
@@ -4434,193 +4641,193 @@
     </row>
     <row r="16" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BL16" s="6"/>
       <c r="BM16" s="6"/>
@@ -4645,11 +4852,11 @@
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CI16" s="6"/>
       <c r="CJ16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CK16" s="6"/>
       <c r="CL16" s="6"/>
@@ -4663,193 +4870,193 @@
     </row>
     <row r="17" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="BC17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="BD17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="BE17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="BF17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="BG17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="BH17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="BI17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="BJ17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="BK17" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BB17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BJ17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK17" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="BL17" s="6"/>
       <c r="BM17" s="6"/>
@@ -4876,7 +5083,7 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="6"/>
       <c r="CJ17" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CK17" s="6"/>
       <c r="CL17" s="6"/>
@@ -4890,7 +5097,7 @@
     </row>
     <row r="18" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4965,30 +5172,30 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BW18" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BX18" s="6"/>
       <c r="BY18" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BZ18" s="6"/>
       <c r="CA18" s="6"/>
       <c r="CB18" s="6"/>
       <c r="CC18" s="6"/>
       <c r="CD18" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CE18" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CF18" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CG18" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CH18" s="6"/>
       <c r="CI18" s="6"/>
@@ -5005,7 +5212,7 @@
     </row>
     <row r="19" spans="1:97" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5080,14 +5287,14 @@
       <c r="BT19" s="17"/>
       <c r="BU19" s="17"/>
       <c r="BV19" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW19" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="BW19" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BZ19" s="17"/>
       <c r="CA19" s="17"/>
@@ -5112,193 +5319,193 @@
     </row>
     <row r="20" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AP20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AQ20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AT20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AU20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AW20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AX20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AY20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BA20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BB20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BC20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BD20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BE20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BG20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BH20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BJ20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BK20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BL20" s="6"/>
       <c r="BM20" s="6"/>
@@ -5313,7 +5520,7 @@
       <c r="BV20" s="6"/>
       <c r="BW20" s="6"/>
       <c r="BX20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BY20" s="6"/>
       <c r="BZ20" s="6"/>
@@ -5327,7 +5534,7 @@
       <c r="CH20" s="6"/>
       <c r="CI20" s="6"/>
       <c r="CJ20" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="CK20" s="6"/>
       <c r="CL20" s="6"/>
@@ -5341,193 +5548,193 @@
     </row>
     <row r="21" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AP21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AQ21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AR21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AS21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AT21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AU21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AW21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AX21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AY21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BA21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BB21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BC21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BD21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BE21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BG21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BH21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BJ21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BK21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BL21" s="6"/>
       <c r="BM21" s="6"/>
@@ -5542,7 +5749,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BX21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BY21" s="6"/>
       <c r="BZ21" s="6"/>
@@ -5556,7 +5763,7 @@
       <c r="CH21" s="6"/>
       <c r="CI21" s="6"/>
       <c r="CJ21" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="CK21" s="6"/>
       <c r="CL21" s="6"/>
@@ -5570,7 +5777,7 @@
     </row>
     <row r="22" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5639,7 +5846,7 @@
       <c r="BN22" s="6"/>
       <c r="BO22" s="6"/>
       <c r="BP22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BQ22" s="6"/>
       <c r="BR22" s="6"/>
@@ -5650,36 +5857,36 @@
       <c r="BW22" s="6"/>
       <c r="BX22" s="6"/>
       <c r="BY22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BZ22" s="6"/>
       <c r="CA22" s="6"/>
       <c r="CB22" s="6"/>
       <c r="CC22" s="6"/>
       <c r="CD22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CE22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CF22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CG22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CH22" s="6"/>
       <c r="CI22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CJ22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CK22" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="CL22" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CM22" s="6"/>
       <c r="CN22" s="6"/>
@@ -5691,7 +5898,7 @@
     </row>
     <row r="23" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5760,7 +5967,7 @@
       <c r="BN23" s="6"/>
       <c r="BO23" s="6"/>
       <c r="BP23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="BQ23" s="6"/>
       <c r="BR23" s="6"/>
@@ -5771,30 +5978,30 @@
       <c r="BW23" s="6"/>
       <c r="BX23" s="6"/>
       <c r="BY23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="BZ23" s="6"/>
       <c r="CA23" s="6"/>
       <c r="CB23" s="6"/>
       <c r="CC23" s="6"/>
       <c r="CD23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CE23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CF23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CG23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CH23" s="6"/>
       <c r="CI23" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CJ23" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="CK23" s="6"/>
       <c r="CL23" s="6"/>
@@ -5808,193 +6015,193 @@
     </row>
     <row r="24" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="BB24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="BC24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="BD24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="BE24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="BF24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="BG24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="BH24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="BI24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="BJ24" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="BK24" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AN24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AO24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AR24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AS24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AT24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AU24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AV24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AW24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AX24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AY24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AZ24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="BA24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="BB24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BC24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BD24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BE24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BF24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BG24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BH24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BI24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BJ24" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="BK24" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="BL24" s="6"/>
       <c r="BM24" s="6"/>
@@ -6009,7 +6216,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BX24" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BY24" s="6"/>
       <c r="BZ24" s="6"/>
@@ -6023,7 +6230,7 @@
       <c r="CH24" s="6"/>
       <c r="CI24" s="6"/>
       <c r="CJ24" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="CK24" s="6"/>
       <c r="CL24" s="6"/>
@@ -6037,193 +6244,193 @@
     </row>
     <row r="25" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AX25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AZ25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BA25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BB25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="BC25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="BD25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="BE25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="BF25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="BG25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="BH25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="BI25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="BJ25" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="BK25" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AN25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AP25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AS25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AT25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AV25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AW25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AX25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AY25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AZ25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="BA25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="BB25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BC25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BD25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BE25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BF25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BG25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BH25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BI25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BJ25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BK25" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="BL25" s="6"/>
       <c r="BM25" s="6"/>
@@ -6250,7 +6457,7 @@
       <c r="CH25" s="6"/>
       <c r="CI25" s="6"/>
       <c r="CJ25" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="CK25" s="6"/>
       <c r="CL25" s="6"/>
@@ -6264,163 +6471,163 @@
     </row>
     <row r="26" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AZ26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
@@ -6469,193 +6676,193 @@
     </row>
     <row r="27" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AZ27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BA27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BC27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BJ27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
@@ -6681,22 +6888,22 @@
       <c r="CG27" s="2"/>
       <c r="CH27" s="2"/>
       <c r="CI27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CJ27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CK27" s="2"/>
       <c r="CL27" s="2"/>
       <c r="CM27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CN27" s="2"/>
       <c r="CO27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CP27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="2"/>
@@ -6704,7 +6911,7 @@
     </row>
     <row r="28" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6759,34 +6966,34 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BC28" s="1" t="s">
+      <c r="BD28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BD28" s="1" t="s">
+      <c r="BE28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BE28" s="1" t="s">
+      <c r="BF28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BF28" s="1" t="s">
+      <c r="BG28" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BG28" s="1" t="s">
+      <c r="BH28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BH28" s="1" t="s">
+      <c r="BI28" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BI28" s="1" t="s">
+      <c r="BJ28" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BJ28" s="1" t="s">
+      <c r="BK28" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="BK28" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
@@ -6825,7 +7032,7 @@
     </row>
     <row r="29" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6880,34 +7087,34 @@
       <c r="AZ29" s="2"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC29" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="BC29" s="4" t="s">
+      <c r="BD29" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="BD29" s="4" t="s">
+      <c r="BE29" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BE29" s="4" t="s">
+      <c r="BF29" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="BF29" s="4" t="s">
+      <c r="BG29" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="BG29" s="4" t="s">
+      <c r="BH29" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BH29" s="4" t="s">
+      <c r="BI29" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="BI29" s="4" t="s">
+      <c r="BJ29" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="BJ29" s="4" t="s">
+      <c r="BK29" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="BK29" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
@@ -6946,7 +7153,7 @@
     </row>
     <row r="30" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7001,34 +7208,34 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BK30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
@@ -7055,7 +7262,7 @@
       <c r="CH30" s="1"/>
       <c r="CI30" s="1"/>
       <c r="CJ30" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="CK30" s="1"/>
       <c r="CL30" s="1"/>
@@ -7069,7 +7276,7 @@
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7124,34 +7331,34 @@
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BC31" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="BC31" s="5" t="s">
+      <c r="BD31" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BD31" s="2" t="s">
+      <c r="BE31" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BE31" s="2" t="s">
+      <c r="BF31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BF31" s="2" t="s">
+      <c r="BG31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="BG31" s="2" t="s">
+      <c r="BH31" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BH31" s="2" t="s">
+      <c r="BI31" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="BI31" s="2" t="s">
+      <c r="BJ31" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="BJ31" s="2" t="s">
+      <c r="BK31" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="BK31" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
@@ -7190,7 +7397,7 @@
     </row>
     <row r="32" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7279,7 +7486,7 @@
       <c r="CH32" s="1"/>
       <c r="CI32" s="1"/>
       <c r="CJ32" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CK32" s="1"/>
       <c r="CL32" s="1"/>
@@ -7293,7 +7500,7 @@
     </row>
     <row r="33" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7348,91 +7555,91 @@
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC33" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BC33" s="2" t="s">
+      <c r="BD33" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BD33" s="2" t="s">
+      <c r="BE33" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BE33" s="2" t="s">
+      <c r="BF33" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BF33" s="2" t="s">
+      <c r="BG33" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BG33" s="2" t="s">
+      <c r="BH33" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BH33" s="2" t="s">
+      <c r="BI33" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BI33" s="2" t="s">
+      <c r="BJ33" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BJ33" s="2" t="s">
+      <c r="BK33" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="BK33" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
       <c r="BN33" s="2"/>
       <c r="BO33" s="2"/>
       <c r="BP33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="2"/>
       <c r="BS33" s="2"/>
       <c r="BT33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BU33" s="2"/>
       <c r="BV33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BW33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
       <c r="CC33" s="2"/>
       <c r="CD33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CE33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CF33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CG33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CH33" s="2"/>
       <c r="CI33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CJ33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CK33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CL33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CM33" s="2"/>
       <c r="CN33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CO33" s="2"/>
       <c r="CP33" s="2"/>
@@ -7442,7 +7649,7 @@
     </row>
     <row r="34" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7511,7 +7718,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
@@ -7519,47 +7726,47 @@
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
       <c r="BV34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
       <c r="CC34" s="1"/>
       <c r="CD34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CE34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CF34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CG34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CH34" s="1"/>
       <c r="CI34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CJ34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CK34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CL34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CM34" s="1"/>
       <c r="CN34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CO34" s="1"/>
       <c r="CP34" s="1"/>
@@ -7569,7 +7776,7 @@
     </row>
     <row r="35" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7661,7 +7868,7 @@
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
       <c r="CM35" s="2" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="CN35" s="2"/>
       <c r="CO35" s="2"/>
@@ -7672,193 +7879,193 @@
     </row>
     <row r="36" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="Y36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AB36" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AG36" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AH36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AG36" s="1" t="s">
+      <c r="AI36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AH36" s="1" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AK36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AJ36" s="1" t="s">
+      <c r="AL36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AK36" s="1" t="s">
+      <c r="AM36" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="AN36" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AM36" s="1" t="s">
+      <c r="AO36" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AN36" s="1" t="s">
+      <c r="AP36" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AO36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AP36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AS36" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AR36" s="1" t="s">
+      <c r="AT36" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AS36" s="1" t="s">
+      <c r="AU36" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AT36" s="1" t="s">
+      <c r="AV36" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AU36" s="1" t="s">
+      <c r="AW36" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AV36" s="1" t="s">
+      <c r="AX36" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AW36" s="1" t="s">
+      <c r="AY36" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AX36" s="1" t="s">
+      <c r="AZ36" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AY36" s="1" t="s">
+      <c r="BA36" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AZ36" s="1" t="s">
+      <c r="BB36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BA36" s="1" t="s">
+      <c r="BC36" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="BB36" s="1" t="s">
+      <c r="BD36" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BC36" s="1" t="s">
+      <c r="BE36" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BD36" s="1" t="s">
+      <c r="BF36" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BE36" s="1" t="s">
+      <c r="BG36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BF36" s="1" t="s">
+      <c r="BH36" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BG36" s="1" t="s">
+      <c r="BI36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BH36" s="1" t="s">
+      <c r="BJ36" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BI36" s="1" t="s">
+      <c r="BK36" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="BJ36" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="BK36" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
@@ -7897,7 +8104,7 @@
     </row>
     <row r="37" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7991,10 +8198,10 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
       <c r="CO37" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="CP37" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="CQ37" s="2"/>
       <c r="CR37" s="2"/>
@@ -8002,7 +8209,7 @@
     </row>
     <row r="38" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8098,14 +8305,14 @@
       <c r="CO38" s="1"/>
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="CR38" s="1"/>
       <c r="CS38" s="1"/>
     </row>
     <row r="39" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8202,7 +8409,7 @@
       <c r="CP39" s="2"/>
       <c r="CQ39" s="2"/>
       <c r="CR39" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="CS39" s="2"/>
     </row>

--- a/TABELA PREDITIVA-v3.xlsx
+++ b/TABELA PREDITIVA-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comp\aga-compiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CIENCIA DA COMPUTAÇAO\4º ANO\Compiladores\H_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3449C3A-698F-4A1A-B372-74322CF548F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C5427-B6BE-4DCC-BF95-6E6974B16FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2790" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2384,29 +2384,57 @@
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
       <c r="BS3" s="1"/>
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
       <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
       <c r="CB3" s="1"/>
       <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
       <c r="CM3" s="1"/>
       <c r="CN3" s="1"/>
       <c r="CO3" s="1"/>
@@ -2850,7 +2878,9 @@
       <c r="BO5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BP5" s="1"/>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
@@ -3536,58 +3566,162 @@
       <c r="A9" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
@@ -3598,10 +3732,18 @@
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1" t="s">
         <v>220</v>
@@ -3615,8 +3757,12 @@
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
       <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
+      <c r="CA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
       <c r="CC9" s="1"/>
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
@@ -3633,7 +3779,9 @@
       <c r="CP9" s="1"/>
       <c r="CQ9" s="1"/>
       <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
+      <c r="CS9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3734,7 +3882,9 @@
       <c r="BV10" s="2"/>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
       <c r="CB10" s="2"/>
@@ -3760,58 +3910,162 @@
       <c r="A11" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
@@ -3822,12 +4076,22 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
+      <c r="BL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>0</v>
+      </c>
       <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
+      <c r="BQ11" s="2">
+        <v>0</v>
+      </c>
       <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
@@ -3837,7 +4101,9 @@
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
       <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
+      <c r="CA11" s="2">
+        <v>0</v>
+      </c>
       <c r="CB11" s="2" t="s">
         <v>419</v>
       </c>
@@ -3855,9 +4121,15 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
       <c r="CP11" s="2"/>
-      <c r="CQ11" s="2"/>
-      <c r="CR11" s="2"/>
-      <c r="CS11" s="2"/>
+      <c r="CQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -4291,7 +4563,9 @@
       <c r="BV13" s="6"/>
       <c r="BW13" s="6"/>
       <c r="BX13" s="6"/>
-      <c r="BY13" s="6"/>
+      <c r="BY13" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ13" s="6"/>
       <c r="CA13" s="6"/>
       <c r="CB13" s="6"/>
@@ -4504,7 +4778,9 @@
       <c r="BV14" s="6"/>
       <c r="BW14" s="6"/>
       <c r="BX14" s="6"/>
-      <c r="BY14" s="6"/>
+      <c r="BY14" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ14" s="6"/>
       <c r="CA14" s="6"/>
       <c r="CB14" s="6"/>
@@ -4606,10 +4882,16 @@
       <c r="BS15" s="6"/>
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
-      <c r="BV15" s="6"/>
-      <c r="BW15" s="6"/>
+      <c r="BV15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="6">
+        <v>0</v>
+      </c>
       <c r="BX15" s="6"/>
-      <c r="BY15" s="6"/>
+      <c r="BY15" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ15" s="6"/>
       <c r="CA15" s="6"/>
       <c r="CB15" s="6"/>
@@ -5068,10 +5350,16 @@
       <c r="BS17" s="6"/>
       <c r="BT17" s="6"/>
       <c r="BU17" s="6"/>
-      <c r="BV17" s="6"/>
-      <c r="BW17" s="6"/>
+      <c r="BV17" s="6">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="6">
+        <v>0</v>
+      </c>
       <c r="BX17" s="6"/>
-      <c r="BY17" s="6"/>
+      <c r="BY17" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ17" s="6"/>
       <c r="CA17" s="6"/>
       <c r="CB17" s="6"/>
@@ -5511,7 +5799,9 @@
       <c r="BM20" s="6"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
+      <c r="BP20" s="6">
+        <v>0</v>
+      </c>
       <c r="BQ20" s="6"/>
       <c r="BR20" s="6"/>
       <c r="BS20" s="6"/>
@@ -5522,17 +5812,29 @@
       <c r="BX20" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="BY20" s="6"/>
+      <c r="BY20" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ20" s="6"/>
       <c r="CA20" s="6"/>
       <c r="CB20" s="6"/>
       <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
+      <c r="CD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="6">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="6">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="6">
+        <v>0</v>
+      </c>
       <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
+      <c r="CI20" s="6">
+        <v>0</v>
+      </c>
       <c r="CJ20" s="6" t="s">
         <v>404</v>
       </c>
@@ -6207,7 +6509,9 @@
       <c r="BM24" s="6"/>
       <c r="BN24" s="6"/>
       <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
+      <c r="BP24" s="6">
+        <v>0</v>
+      </c>
       <c r="BQ24" s="6"/>
       <c r="BR24" s="6"/>
       <c r="BS24" s="6"/>
@@ -6218,22 +6522,38 @@
       <c r="BX24" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="BY24" s="6"/>
+      <c r="BY24" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ24" s="6"/>
       <c r="CA24" s="6"/>
       <c r="CB24" s="6"/>
       <c r="CC24" s="6"/>
-      <c r="CD24" s="6"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24" s="6"/>
-      <c r="CG24" s="6"/>
+      <c r="CD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="6">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="6">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="6">
+        <v>0</v>
+      </c>
       <c r="CH24" s="6"/>
-      <c r="CI24" s="6"/>
+      <c r="CI24" s="6">
+        <v>0</v>
+      </c>
       <c r="CJ24" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="CK24" s="6"/>
-      <c r="CL24" s="6"/>
+      <c r="CK24" s="6">
+        <v>0</v>
+      </c>
+      <c r="CL24" s="6">
+        <v>0</v>
+      </c>
       <c r="CM24" s="6"/>
       <c r="CN24" s="6"/>
       <c r="CO24" s="6"/>
@@ -6445,7 +6765,9 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
+      <c r="BY25" s="6">
+        <v>0</v>
+      </c>
       <c r="BZ25" s="6"/>
       <c r="CA25" s="6"/>
       <c r="CB25" s="6"/>
@@ -6643,7 +6965,9 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
+      <c r="BP26" s="1">
+        <v>0</v>
+      </c>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
       <c r="BS26" s="1"/>
@@ -6868,7 +7192,9 @@
       <c r="BM27" s="2"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="2"/>
-      <c r="BP27" s="2"/>
+      <c r="BP27" s="2">
+        <v>0</v>
+      </c>
       <c r="BQ27" s="2"/>
       <c r="BR27" s="2"/>
       <c r="BS27" s="2"/>
@@ -7003,7 +7329,9 @@
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
       <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
+      <c r="BT28" s="1">
+        <v>0</v>
+      </c>
       <c r="BU28" s="1"/>
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
@@ -7129,7 +7457,9 @@
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
-      <c r="BY29" s="2"/>
+      <c r="BY29" s="2">
+        <v>0</v>
+      </c>
       <c r="BZ29" s="2"/>
       <c r="CA29" s="2"/>
       <c r="CB29" s="2"/>
@@ -7241,31 +7571,53 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
+      <c r="BP30" s="1">
+        <v>0</v>
+      </c>
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
       <c r="BS30" s="1"/>
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
-      <c r="BV30" s="1"/>
-      <c r="BW30" s="1"/>
+      <c r="BV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>0</v>
+      </c>
       <c r="BX30" s="1"/>
-      <c r="BY30" s="1"/>
+      <c r="BY30" s="1">
+        <v>0</v>
+      </c>
       <c r="BZ30" s="1"/>
       <c r="CA30" s="1"/>
       <c r="CB30" s="1"/>
       <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
-      <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
-      <c r="CG30" s="1"/>
+      <c r="CD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>0</v>
+      </c>
       <c r="CH30" s="1"/>
-      <c r="CI30" s="1"/>
+      <c r="CI30" s="1">
+        <v>0</v>
+      </c>
       <c r="CJ30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
+      <c r="CK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL30" s="1">
+        <v>0</v>
+      </c>
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
@@ -7364,29 +7716,53 @@
       <c r="BM31" s="2"/>
       <c r="BN31" s="2"/>
       <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
+      <c r="BP31" s="2">
+        <v>0</v>
+      </c>
       <c r="BQ31" s="2"/>
       <c r="BR31" s="2"/>
       <c r="BS31" s="2"/>
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
-      <c r="BV31" s="2"/>
-      <c r="BW31" s="2"/>
+      <c r="BV31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>0</v>
+      </c>
       <c r="BX31" s="2"/>
-      <c r="BY31" s="2"/>
+      <c r="BY31" s="2">
+        <v>0</v>
+      </c>
       <c r="BZ31" s="2"/>
       <c r="CA31" s="2"/>
       <c r="CB31" s="2"/>
       <c r="CC31" s="2"/>
-      <c r="CD31" s="2"/>
-      <c r="CE31" s="2"/>
-      <c r="CF31" s="2"/>
-      <c r="CG31" s="2"/>
+      <c r="CD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG31" s="2">
+        <v>0</v>
+      </c>
       <c r="CH31" s="2"/>
-      <c r="CI31" s="2"/>
-      <c r="CJ31" s="2"/>
-      <c r="CK31" s="2"/>
-      <c r="CL31" s="2"/>
+      <c r="CI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL31" s="2">
+        <v>0</v>
+      </c>
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
       <c r="CO31" s="2"/>
@@ -7471,25 +7847,45 @@
       <c r="BS32" s="1"/>
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
-      <c r="BV32" s="1"/>
-      <c r="BW32" s="1"/>
+      <c r="BV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>0</v>
+      </c>
       <c r="BX32" s="1"/>
-      <c r="BY32" s="1"/>
+      <c r="BY32" s="1">
+        <v>0</v>
+      </c>
       <c r="BZ32" s="1"/>
       <c r="CA32" s="1"/>
       <c r="CB32" s="1"/>
       <c r="CC32" s="1"/>
-      <c r="CD32" s="1"/>
-      <c r="CE32" s="1"/>
-      <c r="CF32" s="1"/>
-      <c r="CG32" s="1"/>
+      <c r="CD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>0</v>
+      </c>
       <c r="CH32" s="1"/>
-      <c r="CI32" s="1"/>
+      <c r="CI32" s="1">
+        <v>0</v>
+      </c>
       <c r="CJ32" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CK32" s="1"/>
-      <c r="CL32" s="1"/>
+      <c r="CK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>0</v>
+      </c>
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1"/>
@@ -7844,7 +8240,9 @@
       <c r="BM35" s="2"/>
       <c r="BN35" s="2"/>
       <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
+      <c r="BP35" s="2">
+        <v>0</v>
+      </c>
       <c r="BQ35" s="2"/>
       <c r="BR35" s="2"/>
       <c r="BS35" s="2"/>
@@ -8094,7 +8492,9 @@
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
+      <c r="CM36" s="1">
+        <v>0</v>
+      </c>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
       <c r="CP36" s="1"/>
@@ -8172,24 +8572,40 @@
       <c r="BM37" s="2"/>
       <c r="BN37" s="2"/>
       <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
+      <c r="BP37" s="2">
+        <v>0</v>
+      </c>
       <c r="BQ37" s="2"/>
       <c r="BR37" s="2"/>
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
       <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
-      <c r="BW37" s="2"/>
+      <c r="BV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>0</v>
+      </c>
       <c r="BX37" s="2"/>
-      <c r="BY37" s="2"/>
+      <c r="BY37" s="2">
+        <v>0</v>
+      </c>
       <c r="BZ37" s="2"/>
       <c r="CA37" s="2"/>
       <c r="CB37" s="2"/>
       <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
-      <c r="CE37" s="2"/>
-      <c r="CF37" s="2"/>
-      <c r="CG37" s="2"/>
+      <c r="CD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG37" s="2">
+        <v>0</v>
+      </c>
       <c r="CH37" s="2"/>
       <c r="CI37" s="2"/>
       <c r="CJ37" s="2"/>
@@ -8211,58 +8627,162 @@
       <c r="A38" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0</v>
+      </c>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
@@ -8273,12 +8793,22 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
+      <c r="BL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="1">
+        <v>0</v>
+      </c>
       <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
+      <c r="BQ38" s="1">
+        <v>0</v>
+      </c>
       <c r="BR38" s="1"/>
       <c r="BS38" s="1"/>
       <c r="BT38" s="1"/>
@@ -8288,8 +8818,12 @@
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
+      <c r="CA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB38" s="1">
+        <v>0</v>
+      </c>
       <c r="CC38" s="1"/>
       <c r="CD38" s="1"/>
       <c r="CE38" s="1"/>
@@ -8307,65 +8841,173 @@
       <c r="CQ38" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
+      <c r="CR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>0</v>
+      </c>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
@@ -8376,12 +9018,22 @@
       <c r="BI39" s="2"/>
       <c r="BJ39" s="2"/>
       <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39" s="2"/>
-      <c r="BO39" s="2"/>
+      <c r="BL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <v>0</v>
+      </c>
       <c r="BP39" s="2"/>
-      <c r="BQ39" s="2"/>
+      <c r="BQ39" s="2">
+        <v>0</v>
+      </c>
       <c r="BR39" s="2"/>
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
@@ -8391,8 +9043,12 @@
       <c r="BX39" s="2"/>
       <c r="BY39" s="2"/>
       <c r="BZ39" s="2"/>
-      <c r="CA39" s="2"/>
-      <c r="CB39" s="2"/>
+      <c r="CA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB39" s="2">
+        <v>0</v>
+      </c>
       <c r="CC39" s="2"/>
       <c r="CD39" s="2"/>
       <c r="CE39" s="2"/>
@@ -8407,11 +9063,15 @@
       <c r="CN39" s="2"/>
       <c r="CO39" s="2"/>
       <c r="CP39" s="2"/>
-      <c r="CQ39" s="2"/>
+      <c r="CQ39" s="2">
+        <v>0</v>
+      </c>
       <c r="CR39" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="CS39" s="2"/>
+      <c r="CS39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
